--- a/kcore_list.xlsx
+++ b/kcore_list.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocyte\Desktop\물리학과 졸업논문\code\C_elegans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652716DD-F47B-4871-9029-0F9C678ED200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368014BA-E1C7-4A94-94A4-441DAD4D7F99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$46</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$2:$D$46</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="216">
-  <si>
-    <t>PHAR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="233">
   <si>
     <t>PHCL</t>
   </si>
@@ -128,9 +117,6 @@
     <t>R9BR</t>
   </si>
   <si>
-    <t>PHDL</t>
-  </si>
-  <si>
     <t>PHDR</t>
   </si>
   <si>
@@ -207,9 +193,6 @@
   </si>
   <si>
     <t>AWCR</t>
-  </si>
-  <si>
-    <t>ASHL</t>
   </si>
   <si>
     <t>ASHR</t>
@@ -662,12 +645,6 @@
     <t>sublateral motor neuron</t>
   </si>
   <si>
-    <t>interneuron in White et al., 1986</t>
-  </si>
-  <si>
-    <t>hypodermis</t>
-  </si>
-  <si>
     <t>endorgan</t>
   </si>
   <si>
@@ -690,11 +667,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>endogan</t>
+    <t>Sex-specific</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sex-specific</t>
+    <t>amphid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypodermis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피하조직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성-특이적 뉴런</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터뉴런</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감각 뉴런</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동뉴런</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ray sensilla</t>
+  </si>
+  <si>
+    <t>hook sensilla</t>
+  </si>
+  <si>
+    <t>post-cloacal sensilla</t>
+  </si>
+  <si>
+    <t>extends to head</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-turn behavior</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ω-turn behavior</t>
+  </si>
+  <si>
+    <t>sinusoidal movement</t>
+  </si>
+  <si>
+    <t>sinusoidal movement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proprioception. interneuron in White et al., 1986</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phasmid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ray sensilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hermaphrodite specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>male-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shared core node</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +779,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,13 +802,56 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -889,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -915,7 +1035,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1027,6 +1170,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0ACE-4B0C-BF16-920A26D926A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1042,6 +1190,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0ACE-4B0C-BF16-920A26D926A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1057,6 +1210,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0ACE-4B0C-BF16-920A26D926A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1072,6 +1230,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0ACE-4B0C-BF16-920A26D926A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1087,6 +1250,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0ACE-4B0C-BF16-920A26D926A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1150,19 +1318,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>SN</c:v>
+                  <c:v>감각 뉴런</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IN</c:v>
+                  <c:v>인터뉴런</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MN</c:v>
+                  <c:v>운동뉴런</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sex-specific</c:v>
+                  <c:v>성-특이적 뉴런</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>endogan</c:v>
+                  <c:v>피하조직</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3188,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3201,33 +3369,35 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="24.75" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3235,38 +3405,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>190</v>
+        <v>174</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K2">
         <f>COUNTA(H2:H39)</f>
         <v>38</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N2" s="1">
         <v>3</v>
@@ -3277,38 +3447,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>190</v>
+        <v>174</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K3">
         <f>COUNTA(H40:H112)</f>
         <v>73</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N3" s="1">
         <v>4</v>
@@ -3319,38 +3489,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>190</v>
+        <v>228</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K4">
         <f>COUNTA(H113:H132)</f>
         <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -3360,36 +3530,36 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>190</v>
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N5" s="1">
         <f>COUNTA(D10:D46)</f>
@@ -3400,30 +3570,30 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>190</v>
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3435,54 +3605,54 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>190</v>
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>190</v>
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3490,1012 +3660,1080 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>190</v>
+      <c r="F9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="I10" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="I11" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>190</v>
+      <c r="I12" s="15" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>192</v>
+      <c r="B13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>192</v>
+      <c r="B14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>192</v>
+      <c r="B15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>175</v>
+      <c r="B17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>175</v>
+      <c r="B18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>175</v>
+      <c r="B19" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>175</v>
+      <c r="B20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>175</v>
+      <c r="B21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="J21" s="40"/>
+      <c r="K21" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>175</v>
+      <c r="B22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>175</v>
+      <c r="B23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>199</v>
+      <c r="B32" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>199</v>
+      <c r="B33" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>199</v>
+      <c r="B34" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>199</v>
+      <c r="B35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>199</v>
+      <c r="B36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>199</v>
+      <c r="B37" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>199</v>
+      <c r="B38" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>199</v>
+      <c r="B39" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>182</v>
+      <c r="B40" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>182</v>
+      <c r="B41" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I41" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>182</v>
+      <c r="B42" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I42" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>182</v>
+      <c r="B43" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I43" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>182</v>
+      <c r="B44" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I44" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>182</v>
+      <c r="B45" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>182</v>
+      <c r="B46" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I46" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
@@ -4505,16 +4743,16 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>182</v>
+      <c r="F47" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I47" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
@@ -4524,16 +4762,16 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>182</v>
+      <c r="F48" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I48" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
@@ -4543,16 +4781,16 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>182</v>
+      <c r="F49" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I49" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
@@ -4562,16 +4800,16 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>182</v>
+      <c r="F50" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I50" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
@@ -4581,16 +4819,16 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>182</v>
+      <c r="F51" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I51" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
@@ -4600,16 +4838,16 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>182</v>
+      <c r="F52" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I52" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
@@ -4619,16 +4857,16 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>182</v>
+      <c r="F53" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I53" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
@@ -4638,16 +4876,16 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>182</v>
+      <c r="F54" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I54" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -4657,16 +4895,16 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>182</v>
+      <c r="F55" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I55" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
@@ -4676,16 +4914,16 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>182</v>
+      <c r="F56" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I56" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I56" s="15"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
@@ -4695,16 +4933,16 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>182</v>
+      <c r="F57" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I57" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I57" s="15"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
@@ -4714,16 +4952,16 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>182</v>
+      <c r="F58" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I58" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I58" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
@@ -4733,16 +4971,16 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="14"/>
-      <c r="F59" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>182</v>
+      <c r="F59" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I59" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I59" s="15"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
@@ -4752,16 +4990,16 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>182</v>
+      <c r="F60" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I60" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I60" s="15"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
@@ -4771,16 +5009,16 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>182</v>
+      <c r="F61" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I61" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
@@ -4790,16 +5028,16 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="14"/>
-      <c r="F62" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>182</v>
+      <c r="F62" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I62" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
@@ -4809,16 +5047,16 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="14"/>
-      <c r="F63" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>182</v>
+      <c r="F63" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I63" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I63" s="15"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -4828,16 +5066,16 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>182</v>
+      <c r="F64" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I64" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I64" s="15"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
@@ -4847,16 +5085,16 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I65" s="14"/>
+      <c r="F65" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I65" s="21"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
@@ -4866,16 +5104,16 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="14"/>
-      <c r="F66" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>182</v>
+      <c r="F66" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I66" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
@@ -4885,16 +5123,16 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="14"/>
-      <c r="F67" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>182</v>
+      <c r="F67" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I67" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
@@ -4904,16 +5142,16 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="14"/>
-      <c r="F68" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>182</v>
+      <c r="F68" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I68" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I68" s="15"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
@@ -4923,16 +5161,16 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="14"/>
-      <c r="F69" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>182</v>
+      <c r="F69" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I69" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -4942,16 +5180,16 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>182</v>
+      <c r="F70" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I70" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
@@ -4961,16 +5199,16 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I71" s="14"/>
+      <c r="F71" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I71" s="21"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
@@ -4980,16 +5218,16 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I72" s="14"/>
+      <c r="F72" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I72" s="21"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
@@ -4999,16 +5237,16 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="14"/>
-      <c r="F73" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I73" s="14"/>
+      <c r="F73" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I73" s="21"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
@@ -5018,16 +5256,16 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="14"/>
-      <c r="F74" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>182</v>
+      <c r="F74" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I74" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I74" s="15"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -5037,16 +5275,16 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="14"/>
-      <c r="F75" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>182</v>
+      <c r="F75" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I75" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
@@ -5056,16 +5294,16 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="14"/>
-      <c r="F76" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>182</v>
+      <c r="F76" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I76" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
@@ -5075,16 +5313,16 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="14"/>
-      <c r="F77" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>182</v>
+      <c r="F77" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I77" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
@@ -5094,16 +5332,16 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="14"/>
-      <c r="F78" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>182</v>
+      <c r="F78" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I78" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I78" s="15"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
@@ -5113,16 +5351,16 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>182</v>
+      <c r="F79" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I79" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I79" s="15"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
@@ -5132,16 +5370,16 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>182</v>
+      <c r="F80" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I80" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
@@ -5151,16 +5389,16 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>182</v>
+      <c r="F81" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I81" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
@@ -5170,16 +5408,16 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="14"/>
-      <c r="F82" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>182</v>
+      <c r="F82" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I82" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I82" s="15"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
@@ -5189,16 +5427,16 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="14"/>
-      <c r="F83" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>182</v>
+      <c r="F83" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I83" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I83" s="15"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
@@ -5208,16 +5446,16 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>182</v>
+      <c r="F84" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I84" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
@@ -5227,16 +5465,16 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="14"/>
-      <c r="F85" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>182</v>
+      <c r="F85" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I85" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
@@ -5246,16 +5484,16 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="14"/>
-      <c r="F86" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>182</v>
+      <c r="F86" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I86" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
@@ -5265,16 +5503,16 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="14"/>
-      <c r="F87" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>182</v>
+      <c r="F87" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I87" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
@@ -5284,16 +5522,16 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="14"/>
-      <c r="F88" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>182</v>
+      <c r="F88" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I88" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I88" s="15"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
@@ -5303,16 +5541,16 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="14"/>
-      <c r="F89" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>182</v>
+      <c r="F89" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I89" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I89" s="15"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
@@ -5322,16 +5560,16 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="14"/>
-      <c r="F90" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>182</v>
+      <c r="F90" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I90" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
@@ -5341,16 +5579,16 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="14"/>
-      <c r="F91" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>182</v>
+      <c r="F91" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I91" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
@@ -5360,16 +5598,16 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="14"/>
-      <c r="F92" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>182</v>
+      <c r="F92" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I92" s="15"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
@@ -5379,16 +5617,16 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="14"/>
-      <c r="F93" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>182</v>
+      <c r="F93" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I93" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
@@ -5398,16 +5636,16 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="14"/>
-      <c r="F94" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>182</v>
+      <c r="F94" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I94" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I94" s="15"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
@@ -5417,16 +5655,16 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>182</v>
+      <c r="F95" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I95" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
@@ -5436,16 +5674,16 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="14"/>
-      <c r="F96" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>182</v>
+      <c r="F96" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I96" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
@@ -5455,16 +5693,16 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>182</v>
+      <c r="F97" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I97" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I97" s="15"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
@@ -5474,16 +5712,16 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="14"/>
-      <c r="F98" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>182</v>
+      <c r="F98" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I98" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I98" s="15"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
@@ -5493,16 +5731,16 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="14"/>
-      <c r="F99" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>182</v>
+      <c r="F99" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I99" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I99" s="15"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
@@ -5512,16 +5750,16 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>182</v>
+      <c r="F100" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I100" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I100" s="15"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
@@ -5531,16 +5769,16 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="14"/>
-      <c r="F101" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>182</v>
+      <c r="F101" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I101" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I101" s="15"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
@@ -5550,16 +5788,16 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="14"/>
-      <c r="F102" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>182</v>
+      <c r="F102" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I102" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
@@ -5569,16 +5807,16 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="14"/>
-      <c r="F103" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>182</v>
+      <c r="F103" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I103" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I103" s="15"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
@@ -5588,16 +5826,16 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="14"/>
-      <c r="F104" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>182</v>
+      <c r="F104" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I104" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="I104" s="15"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
@@ -5607,16 +5845,16 @@
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="14"/>
-      <c r="F105" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>182</v>
+      <c r="F105" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I105" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
@@ -5626,16 +5864,16 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="14"/>
-      <c r="F106" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>182</v>
+      <c r="F106" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I106" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I106" s="15"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
@@ -5645,16 +5883,16 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="14"/>
-      <c r="F107" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>182</v>
+      <c r="F107" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I107" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I107" s="15"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
@@ -5664,16 +5902,16 @@
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="14"/>
-      <c r="F108" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>182</v>
+      <c r="F108" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I108" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
@@ -5683,16 +5921,16 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="14"/>
-      <c r="F109" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>182</v>
+      <c r="F109" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I109" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I109" s="15"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
@@ -5702,16 +5940,16 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="14"/>
-      <c r="F110" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>182</v>
+      <c r="F110" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I110" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I110" s="15"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
@@ -5721,16 +5959,16 @@
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="14"/>
-      <c r="F111" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>182</v>
+      <c r="F111" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I111" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="I111" s="15"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
@@ -5740,16 +5978,16 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="14"/>
-      <c r="F112" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>182</v>
+      <c r="F112" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I112" s="14"/>
+        <v>200</v>
+      </c>
+      <c r="I112" s="15"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
@@ -5759,16 +5997,16 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="14"/>
-      <c r="F113" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I113" s="14"/>
+      <c r="F113" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I113" s="15"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
@@ -5778,16 +6016,16 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="14"/>
-      <c r="F114" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I114" s="14"/>
+      <c r="F114" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I114" s="15"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
@@ -5797,16 +6035,16 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="14"/>
-      <c r="F115" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I115" s="14"/>
+      <c r="F115" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I115" s="15"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
@@ -5816,16 +6054,16 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="14"/>
-      <c r="F116" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I116" s="14"/>
+      <c r="F116" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I116" s="15"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
@@ -5835,16 +6073,16 @@
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="14"/>
-      <c r="F117" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I117" s="14"/>
+      <c r="F117" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I117" s="15"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
@@ -5854,16 +6092,16 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="14"/>
-      <c r="F118" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I118" s="14"/>
+      <c r="F118" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I118" s="15"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
@@ -5873,16 +6111,16 @@
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="14"/>
-      <c r="F119" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I119" s="14"/>
+      <c r="F119" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I119" s="15"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
@@ -5892,16 +6130,16 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="14"/>
-      <c r="F120" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I120" s="14"/>
+      <c r="F120" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I120" s="15"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
@@ -5911,16 +6149,16 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="14"/>
-      <c r="F121" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I121" s="14"/>
+      <c r="F121" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I121" s="15"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
@@ -5930,16 +6168,16 @@
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I122" s="14"/>
+      <c r="F122" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I122" s="15"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
@@ -5949,17 +6187,17 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="14"/>
-      <c r="F123" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>205</v>
+      <c r="F123" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="I123" s="15" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -5970,16 +6208,18 @@
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="14"/>
-      <c r="F124" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I124" s="14"/>
+      <c r="F124" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I124" s="26" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
@@ -5989,16 +6229,18 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="14"/>
-      <c r="F125" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I125" s="14"/>
+      <c r="F125" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I125" s="15" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
@@ -6008,16 +6250,18 @@
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="14"/>
-      <c r="F126" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I126" s="14"/>
+      <c r="F126" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
@@ -6027,16 +6271,18 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="14"/>
-      <c r="F127" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I127" s="14"/>
+      <c r="F127" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
@@ -6046,16 +6292,18 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="14"/>
-      <c r="F128" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I128" s="14"/>
+      <c r="F128" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
@@ -6065,16 +6313,18 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I129" s="14"/>
+      <c r="F129" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
@@ -6084,16 +6334,18 @@
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="14"/>
-      <c r="F130" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I130" s="14"/>
+      <c r="F130" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I130" s="15" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
@@ -6103,16 +6355,18 @@
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="14"/>
-      <c r="F131" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I131" s="14"/>
+      <c r="F131" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I131" s="15" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
@@ -6123,13 +6377,13 @@
       <c r="D132" s="3"/>
       <c r="E132" s="14"/>
       <c r="F132" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I132" s="14"/>
     </row>
@@ -6142,13 +6396,13 @@
       <c r="D133" s="3"/>
       <c r="E133" s="14"/>
       <c r="F133" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I133" s="14"/>
     </row>
@@ -6160,16 +6414,16 @@
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="14"/>
-      <c r="F134" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I134" s="14"/>
+      <c r="F134" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H134" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I134" s="39"/>
     </row>
     <row r="135" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="9">
@@ -6179,16 +6433,16 @@
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
       <c r="E135" s="18"/>
-      <c r="F135" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="H135" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="I135" s="18"/>
+      <c r="F135" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H135" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I135" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
